--- a/significantvolcanoeruptions.xlsx
+++ b/significantvolcanoeruptions.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acheung\Dropbox (Tableau)\Datasets\Not vetted\Signficant Volcano Eruptions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ContactTracer\Desktop\Tableau Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB12DBBD-B4D4-4CC8-A160-312162604005}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7350" windowHeight="3330" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="volerup" sheetId="1" r:id="rId1"/>
@@ -1441,7 +1442,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2252,16 +2253,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ660"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2371,7 +2372,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>-4360</v>
       </c>
@@ -2406,7 +2407,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>-4350</v>
       </c>
@@ -2462,7 +2463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>-4050</v>
       </c>
@@ -2497,7 +2498,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>-4000</v>
       </c>
@@ -2538,7 +2539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>-3580</v>
       </c>
@@ -2573,7 +2574,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>-3550</v>
       </c>
@@ -2608,7 +2609,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>-2040</v>
       </c>
@@ -2643,7 +2644,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>-1900</v>
       </c>
@@ -2678,7 +2679,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>-1890</v>
       </c>
@@ -2713,7 +2714,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>-1860</v>
       </c>
@@ -2748,7 +2749,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>-1750</v>
       </c>
@@ -2783,7 +2784,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>-1645</v>
       </c>
@@ -2818,7 +2819,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>-1610</v>
       </c>
@@ -2868,7 +2869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>-1550</v>
       </c>
@@ -2903,7 +2904,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>-1460</v>
       </c>
@@ -2938,7 +2939,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>-1370</v>
       </c>
@@ -2973,7 +2974,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>-1050</v>
       </c>
@@ -3008,7 +3009,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>-250</v>
       </c>
@@ -3043,7 +3044,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>-197</v>
       </c>
@@ -3081,7 +3082,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>-150</v>
       </c>
@@ -3119,7 +3120,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>-141</v>
       </c>
@@ -3163,7 +3164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>-100</v>
       </c>
@@ -3198,7 +3199,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>-50</v>
       </c>
@@ -3233,7 +3234,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>46</v>
       </c>
@@ -3271,7 +3272,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>50</v>
       </c>
@@ -3306,7 +3307,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>60</v>
       </c>
@@ -3341,7 +3342,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>79</v>
       </c>
@@ -3397,7 +3398,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>200</v>
       </c>
@@ -3435,7 +3436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>230</v>
       </c>
@@ -3470,7 +3471,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>240</v>
       </c>
@@ -3505,7 +3506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>350</v>
       </c>
@@ -3540,7 +3541,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>416</v>
       </c>
@@ -3590,7 +3591,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>450</v>
       </c>
@@ -3637,7 +3638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>500</v>
       </c>
@@ -3675,7 +3676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>540</v>
       </c>
@@ -3713,7 +3714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>590</v>
       </c>
@@ -3751,7 +3752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>640</v>
       </c>
@@ -3795,7 +3796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>710</v>
       </c>
@@ -3830,7 +3831,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>764</v>
       </c>
@@ -3880,7 +3881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>766</v>
       </c>
@@ -3933,7 +3934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>787</v>
       </c>
@@ -3980,7 +3981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>800</v>
       </c>
@@ -4015,7 +4016,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>800</v>
       </c>
@@ -4050,7 +4051,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>920</v>
       </c>
@@ -4088,7 +4089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>930</v>
       </c>
@@ -4123,7 +4124,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>934</v>
       </c>
@@ -4164,7 +4165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>950</v>
       </c>
@@ -4199,7 +4200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1000</v>
       </c>
@@ -4234,7 +4235,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1050</v>
       </c>
@@ -4269,7 +4270,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1104</v>
       </c>
@@ -4316,7 +4317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1151</v>
       </c>
@@ -4357,7 +4358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1158</v>
       </c>
@@ -4404,7 +4405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1169</v>
       </c>
@@ -4460,7 +4461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1169</v>
       </c>
@@ -4501,7 +4502,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1177</v>
       </c>
@@ -4542,7 +4543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1206</v>
       </c>
@@ -4589,7 +4590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1250</v>
       </c>
@@ -4624,7 +4625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1262</v>
       </c>
@@ -4668,7 +4669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1280</v>
       </c>
@@ -4706,7 +4707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1300</v>
       </c>
@@ -4753,7 +4754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1302</v>
       </c>
@@ -4791,7 +4792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1311</v>
       </c>
@@ -4841,7 +4842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1311</v>
       </c>
@@ -4882,7 +4883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1329</v>
       </c>
@@ -4932,7 +4933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1329</v>
       </c>
@@ -4979,7 +4980,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1331</v>
       </c>
@@ -5023,7 +5024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1334</v>
       </c>
@@ -5064,7 +5065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1341</v>
       </c>
@@ -5111,7 +5112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1357</v>
       </c>
@@ -5152,7 +5153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1362</v>
       </c>
@@ -5208,7 +5209,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1376</v>
       </c>
@@ -5249,7 +5250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1385</v>
       </c>
@@ -5290,7 +5291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1389</v>
       </c>
@@ -5337,7 +5338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1410</v>
       </c>
@@ -5390,7 +5391,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1452</v>
       </c>
@@ -5434,7 +5435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1471</v>
       </c>
@@ -5484,7 +5485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1477</v>
       </c>
@@ -5528,7 +5529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1485</v>
       </c>
@@ -5578,7 +5579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1500</v>
       </c>
@@ -5619,7 +5620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1510</v>
       </c>
@@ -5675,7 +5676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1536</v>
       </c>
@@ -5731,7 +5732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1538</v>
       </c>
@@ -5787,7 +5788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1540</v>
       </c>
@@ -5825,7 +5826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1550</v>
       </c>
@@ -5869,7 +5870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1564</v>
       </c>
@@ -5916,7 +5917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1565</v>
       </c>
@@ -5963,7 +5964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1566</v>
       </c>
@@ -6010,7 +6011,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1570</v>
       </c>
@@ -6057,7 +6058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1576</v>
       </c>
@@ -6098,7 +6099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1580</v>
       </c>
@@ -6154,7 +6155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1580</v>
       </c>
@@ -6195,7 +6196,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1581</v>
       </c>
@@ -6242,7 +6243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1586</v>
       </c>
@@ -6289,7 +6290,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1587</v>
       </c>
@@ -6330,7 +6331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1593</v>
       </c>
@@ -6371,7 +6372,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1595</v>
       </c>
@@ -6427,7 +6428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1596</v>
       </c>
@@ -6477,7 +6478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1597</v>
       </c>
@@ -6524,7 +6525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1597</v>
       </c>
@@ -6568,7 +6569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1598</v>
       </c>
@@ -6624,7 +6625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1598</v>
       </c>
@@ -6665,7 +6666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1600</v>
       </c>
@@ -6724,7 +6725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1606</v>
       </c>
@@ -6768,7 +6769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1608</v>
       </c>
@@ -6815,7 +6816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1609</v>
       </c>
@@ -6856,7 +6857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1615</v>
       </c>
@@ -6906,7 +6907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1617</v>
       </c>
@@ -6941,7 +6942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1625</v>
       </c>
@@ -6982,7 +6983,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>1629</v>
       </c>
@@ -7032,7 +7033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>1630</v>
       </c>
@@ -7088,7 +7089,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>1631</v>
       </c>
@@ -7150,7 +7151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>1631</v>
       </c>
@@ -7224,7 +7225,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1636</v>
       </c>
@@ -7271,7 +7272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>1638</v>
       </c>
@@ -7321,7 +7322,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>1640</v>
       </c>
@@ -7386,7 +7387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>1646</v>
       </c>
@@ -7433,7 +7434,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>1650</v>
       </c>
@@ -7492,7 +7493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>1659</v>
       </c>
@@ -7539,7 +7540,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="121" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>1659</v>
       </c>
@@ -7583,7 +7584,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>1660</v>
       </c>
@@ -7636,7 +7637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>1660</v>
       </c>
@@ -7683,7 +7684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1660</v>
       </c>
@@ -7748,7 +7749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>1663</v>
       </c>
@@ -7804,7 +7805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>1664</v>
       </c>
@@ -7860,7 +7861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>1664</v>
       </c>
@@ -7916,7 +7917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>1669</v>
       </c>
@@ -7966,7 +7967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>1670</v>
       </c>
@@ -8010,7 +8011,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>1672</v>
       </c>
@@ -8063,7 +8064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>1672</v>
       </c>
@@ -8119,7 +8120,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>1673</v>
       </c>
@@ -8169,7 +8170,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1677</v>
       </c>
@@ -8225,7 +8226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>1679</v>
       </c>
@@ -8266,7 +8267,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="135" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>1682</v>
       </c>
@@ -8319,7 +8320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>1684</v>
       </c>
@@ -8372,7 +8373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>1690</v>
       </c>
@@ -8413,7 +8414,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="138" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>1690</v>
       </c>
@@ -8454,7 +8455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>1692</v>
       </c>
@@ -8504,7 +8505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>1693</v>
       </c>
@@ -8545,7 +8546,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="141" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>1693</v>
       </c>
@@ -8589,7 +8590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>1694</v>
       </c>
@@ -8636,7 +8637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>1698</v>
       </c>
@@ -8677,7 +8678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>1698</v>
       </c>
@@ -8721,7 +8722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>1698</v>
       </c>
@@ -8762,7 +8763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>1706</v>
       </c>
@@ -8812,7 +8813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>1707</v>
       </c>
@@ -8850,7 +8851,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="148" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>1707</v>
       </c>
@@ -8918,7 +8919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>1711</v>
       </c>
@@ -8974,7 +8975,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>1712</v>
       </c>
@@ -9021,7 +9022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>1714</v>
       </c>
@@ -9062,7 +9063,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="152" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>1716</v>
       </c>
@@ -9112,7 +9113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>1716</v>
       </c>
@@ -9171,7 +9172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>1716</v>
       </c>
@@ -9218,7 +9219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>1716</v>
       </c>
@@ -9283,7 +9284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>1717</v>
       </c>
@@ -9348,7 +9349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>1717</v>
       </c>
@@ -9395,7 +9396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>1717</v>
       </c>
@@ -9442,7 +9443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>1718</v>
       </c>
@@ -9495,7 +9496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>1721</v>
       </c>
@@ -9542,7 +9543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>1721</v>
       </c>
@@ -9598,7 +9599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>1726</v>
       </c>
@@ -9645,7 +9646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>1727</v>
       </c>
@@ -9701,7 +9702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>1729</v>
       </c>
@@ -9748,7 +9749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>1729</v>
       </c>
@@ -9795,7 +9796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>1730</v>
       </c>
@@ -9842,7 +9843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>1730</v>
       </c>
@@ -9886,7 +9887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>1730</v>
       </c>
@@ -9927,7 +9928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>1737</v>
       </c>
@@ -9989,7 +9990,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>1741</v>
       </c>
@@ -10054,7 +10055,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>1742</v>
       </c>
@@ -10110,7 +10111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>1742</v>
       </c>
@@ -10166,7 +10167,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>1749</v>
       </c>
@@ -10228,7 +10229,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>1753</v>
       </c>
@@ -10275,7 +10276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>1754</v>
       </c>
@@ -10349,7 +10350,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>1755</v>
       </c>
@@ -10405,7 +10406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>1757</v>
       </c>
@@ -10464,7 +10465,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>1760</v>
       </c>
@@ -10520,7 +10521,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>1762</v>
       </c>
@@ -10561,7 +10562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>1766</v>
       </c>
@@ -10608,7 +10609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>1766</v>
       </c>
@@ -10664,7 +10665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>1768</v>
       </c>
@@ -10720,7 +10721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1772</v>
       </c>
@@ -10779,7 +10780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>1772</v>
       </c>
@@ -10841,7 +10842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>1773</v>
       </c>
@@ -10891,7 +10892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>1775</v>
       </c>
@@ -10947,7 +10948,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>1775</v>
       </c>
@@ -10988,7 +10989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>1778</v>
       </c>
@@ -11038,7 +11039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1779</v>
       </c>
@@ -11085,7 +11086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>1779</v>
       </c>
@@ -11141,7 +11142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>1780</v>
       </c>
@@ -11191,7 +11192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>1780</v>
       </c>
@@ -11250,7 +11251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>1780</v>
       </c>
@@ -11294,7 +11295,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>1780</v>
       </c>
@@ -11335,7 +11336,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="195" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>1781</v>
       </c>
@@ -11397,7 +11398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>1783</v>
       </c>
@@ -11453,7 +11454,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>1784</v>
       </c>
@@ -11506,7 +11507,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>1784</v>
       </c>
@@ -11547,7 +11548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>1785</v>
       </c>
@@ -11600,7 +11601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>1786</v>
       </c>
@@ -11656,7 +11657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>1789</v>
       </c>
@@ -11700,7 +11701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>1790</v>
       </c>
@@ -11753,7 +11754,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>1792</v>
       </c>
@@ -11827,7 +11828,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>1794</v>
       </c>
@@ -11889,7 +11890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>1800</v>
       </c>
@@ -11945,7 +11946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>1800</v>
       </c>
@@ -11992,7 +11993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>1800</v>
       </c>
@@ -12039,7 +12040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>1800</v>
       </c>
@@ -12089,7 +12090,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>1800</v>
       </c>
@@ -12139,7 +12140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>1801</v>
       </c>
@@ -12192,7 +12193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>1803</v>
       </c>
@@ -12239,7 +12240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>1803</v>
       </c>
@@ -12286,7 +12287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>1804</v>
       </c>
@@ -12327,7 +12328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>1805</v>
       </c>
@@ -12380,7 +12381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>1812</v>
       </c>
@@ -12436,7 +12437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>1812</v>
       </c>
@@ -12492,7 +12493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>1814</v>
       </c>
@@ -12554,7 +12555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>1815</v>
       </c>
@@ -12631,7 +12632,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>1816</v>
       </c>
@@ -12687,7 +12688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>1817</v>
       </c>
@@ -12749,7 +12750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>1817</v>
       </c>
@@ -12790,7 +12791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>1818</v>
       </c>
@@ -12837,7 +12838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>1819</v>
       </c>
@@ -12872,7 +12873,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="224" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>1820</v>
       </c>
@@ -12919,7 +12920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>1820</v>
       </c>
@@ -12966,7 +12967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>1822</v>
       </c>
@@ -13040,7 +13041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>1822</v>
       </c>
@@ -13108,7 +13109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>1822</v>
       </c>
@@ -13179,7 +13180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="229" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>1823</v>
       </c>
@@ -13226,7 +13227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>1824</v>
       </c>
@@ -13261,7 +13262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>1825</v>
       </c>
@@ -13302,7 +13303,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="232" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>1826</v>
       </c>
@@ -13349,7 +13350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>1826</v>
       </c>
@@ -13423,7 +13424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="234" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>1826</v>
       </c>
@@ -13470,7 +13471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>1827</v>
       </c>
@@ -13517,7 +13518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>1827</v>
       </c>
@@ -13558,7 +13559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>1829</v>
       </c>
@@ -13599,7 +13600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>1832</v>
       </c>
@@ -13649,7 +13650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>1832</v>
       </c>
@@ -13708,7 +13709,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>1833</v>
       </c>
@@ -13764,7 +13765,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>1835</v>
       </c>
@@ -13814,7 +13815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>1835</v>
       </c>
@@ -13870,7 +13871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>1837</v>
       </c>
@@ -13911,7 +13912,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="244" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>1838</v>
       </c>
@@ -13967,7 +13968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>1839</v>
       </c>
@@ -14011,7 +14012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>1840</v>
       </c>
@@ -14058,7 +14059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>1840</v>
       </c>
@@ -14108,7 +14109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>1840</v>
       </c>
@@ -14152,7 +14153,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="249" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>1840</v>
       </c>
@@ -14196,7 +14197,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="250" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>1841</v>
       </c>
@@ -14249,7 +14250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>1843</v>
       </c>
@@ -14293,7 +14294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>1843</v>
       </c>
@@ -14334,7 +14335,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="253" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>1843</v>
       </c>
@@ -14384,7 +14385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>1843</v>
       </c>
@@ -14446,7 +14447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>1845</v>
       </c>
@@ -14505,7 +14506,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="256" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>1845</v>
       </c>
@@ -14561,7 +14562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="257" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>1845</v>
       </c>
@@ -14608,7 +14609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>1846</v>
       </c>
@@ -14655,7 +14656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>1846</v>
       </c>
@@ -14705,7 +14706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>1847</v>
       </c>
@@ -14755,7 +14756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>1847</v>
       </c>
@@ -14802,7 +14803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>1848</v>
       </c>
@@ -14870,7 +14871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="263" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>1850</v>
       </c>
@@ -14914,7 +14915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="264" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>1853</v>
       </c>
@@ -14970,7 +14971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>1853</v>
       </c>
@@ -15032,7 +15033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>1853</v>
       </c>
@@ -15076,7 +15077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>1854</v>
       </c>
@@ -15123,7 +15124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>1854</v>
       </c>
@@ -15173,7 +15174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>1856</v>
       </c>
@@ -15250,7 +15251,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="270" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>1856</v>
       </c>
@@ -15291,7 +15292,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="271" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>1856</v>
       </c>
@@ -15353,7 +15354,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="272" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>1857</v>
       </c>
@@ -15397,7 +15398,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="273" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>1858</v>
       </c>
@@ -15444,7 +15445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>1860</v>
       </c>
@@ -15488,7 +15489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>1860</v>
       </c>
@@ -15535,7 +15536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>1861</v>
       </c>
@@ -15600,7 +15601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="277" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>1861</v>
       </c>
@@ -15644,7 +15645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>1861</v>
       </c>
@@ -15718,7 +15719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="279" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>1863</v>
       </c>
@@ -15768,7 +15769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="280" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>1864</v>
       </c>
@@ -15830,7 +15831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="281" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>1866</v>
       </c>
@@ -15874,7 +15875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="282" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>1867</v>
       </c>
@@ -15930,7 +15931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>1868</v>
       </c>
@@ -16001,7 +16002,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="284" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>1868</v>
       </c>
@@ -16045,7 +16046,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="285" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>1869</v>
       </c>
@@ -16098,7 +16099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>1869</v>
       </c>
@@ -16151,7 +16152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>1870</v>
       </c>
@@ -16207,7 +16208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>1870</v>
       </c>
@@ -16248,7 +16249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>1870</v>
       </c>
@@ -16304,7 +16305,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="290" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>1871</v>
       </c>
@@ -16372,7 +16373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="291" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>1871</v>
       </c>
@@ -16437,7 +16438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="292" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>1871</v>
       </c>
@@ -16505,7 +16506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>1871</v>
       </c>
@@ -16561,7 +16562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>1872</v>
       </c>
@@ -16629,7 +16630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>1872</v>
       </c>
@@ -16697,7 +16698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>1872</v>
       </c>
@@ -16750,7 +16751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>1872</v>
       </c>
@@ -16794,7 +16795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>1873</v>
       </c>
@@ -16841,7 +16842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>1874</v>
       </c>
@@ -16897,7 +16898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>1874</v>
       </c>
@@ -16944,7 +16945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>1875</v>
       </c>
@@ -17006,7 +17007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="302" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>1875</v>
       </c>
@@ -17053,7 +17054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>1877</v>
       </c>
@@ -17100,7 +17101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>1877</v>
       </c>
@@ -17156,7 +17157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="305" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>1878</v>
       </c>
@@ -17203,7 +17204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>1878</v>
       </c>
@@ -17259,7 +17260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>1878</v>
       </c>
@@ -17303,7 +17304,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="308" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>1878</v>
       </c>
@@ -17350,7 +17351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="309" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>1879</v>
       </c>
@@ -17394,7 +17395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="310" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>1883</v>
       </c>
@@ -17447,7 +17448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="311" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>1883</v>
       </c>
@@ -17524,7 +17525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="312" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>1883</v>
       </c>
@@ -17586,7 +17587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>1883</v>
       </c>
@@ -17627,7 +17628,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="314" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>1883</v>
       </c>
@@ -17674,7 +17675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="315" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>1884</v>
       </c>
@@ -17712,7 +17713,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="316" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>1884</v>
       </c>
@@ -17774,7 +17775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>1885</v>
       </c>
@@ -17836,7 +17837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="318" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>1886</v>
       </c>
@@ -17892,7 +17893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>1886</v>
       </c>
@@ -17948,7 +17949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="320" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>1886</v>
       </c>
@@ -18001,7 +18002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>1887</v>
       </c>
@@ -18057,7 +18058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>1888</v>
       </c>
@@ -18113,7 +18114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="323" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>1888</v>
       </c>
@@ -18193,7 +18194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="324" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>1889</v>
       </c>
@@ -18240,7 +18241,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="325" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>1890</v>
       </c>
@@ -18293,7 +18294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="326" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>1890</v>
       </c>
@@ -18337,7 +18338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="327" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>1892</v>
       </c>
@@ -18393,7 +18394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="328" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>1892</v>
       </c>
@@ -18464,7 +18465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="329" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>1893</v>
       </c>
@@ -18520,7 +18521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>1894</v>
       </c>
@@ -18573,7 +18574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>1895</v>
       </c>
@@ -18626,7 +18627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>1895</v>
       </c>
@@ -18682,7 +18683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>1895</v>
       </c>
@@ -18738,7 +18739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>1895</v>
       </c>
@@ -18788,7 +18789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>1896</v>
       </c>
@@ -18856,7 +18857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>1897</v>
       </c>
@@ -18912,7 +18913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="337" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>1899</v>
       </c>
@@ -18968,7 +18969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="338" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>1899</v>
       </c>
@@ -19015,7 +19016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>1900</v>
       </c>
@@ -19068,7 +19069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>1900</v>
       </c>
@@ -19133,7 +19134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>1900</v>
       </c>
@@ -19201,7 +19202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>1900</v>
       </c>
@@ -19236,7 +19237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>1901</v>
       </c>
@@ -19283,7 +19284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="344" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>1901</v>
       </c>
@@ -19333,7 +19334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="345" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>1902</v>
       </c>
@@ -19386,7 +19387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>1902</v>
       </c>
@@ -19451,7 +19452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="347" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>1902</v>
       </c>
@@ -19510,7 +19511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="348" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>1902</v>
       </c>
@@ -19551,7 +19552,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="349" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>1902</v>
       </c>
@@ -19604,7 +19605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="350" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>1902</v>
       </c>
@@ -19663,7 +19664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="351" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>1902</v>
       </c>
@@ -19731,7 +19732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="352" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>1902</v>
       </c>
@@ -19802,7 +19803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="353" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>1903</v>
       </c>
@@ -19858,7 +19859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>1904</v>
       </c>
@@ -19920,7 +19921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>1905</v>
       </c>
@@ -19988,7 +19989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>1905</v>
       </c>
@@ -20044,7 +20045,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="357" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>1906</v>
       </c>
@@ -20115,7 +20116,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="358" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>1907</v>
       </c>
@@ -20156,7 +20157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>1907</v>
       </c>
@@ -20203,7 +20204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>1907</v>
       </c>
@@ -20262,7 +20263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>1907</v>
       </c>
@@ -20315,7 +20316,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="362" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>1909</v>
       </c>
@@ -20359,7 +20360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="363" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>1909</v>
       </c>
@@ -20412,7 +20413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="364" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>1910</v>
       </c>
@@ -20468,7 +20469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>1911</v>
       </c>
@@ -20560,7 +20561,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="366" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>1911</v>
       </c>
@@ -20625,7 +20626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="367" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>1911</v>
       </c>
@@ -20672,7 +20673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="368" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>1911</v>
       </c>
@@ -20713,7 +20714,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="369" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>1911</v>
       </c>
@@ -20760,7 +20761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>1912</v>
       </c>
@@ -20816,7 +20817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>1912</v>
       </c>
@@ -20872,7 +20873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>1913</v>
       </c>
@@ -20934,7 +20935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="373" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>1913</v>
       </c>
@@ -20981,7 +20982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>1913</v>
       </c>
@@ -21043,7 +21044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="375" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>1914</v>
       </c>
@@ -21138,7 +21139,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="376" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>1914</v>
       </c>
@@ -21188,7 +21189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>1914</v>
       </c>
@@ -21241,7 +21242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>1916</v>
       </c>
@@ -21282,7 +21283,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="379" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>1916</v>
       </c>
@@ -21329,7 +21330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>1917</v>
       </c>
@@ -21376,7 +21377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>1917</v>
       </c>
@@ -21444,7 +21445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>1917</v>
       </c>
@@ -21503,7 +21504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="383" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>1918</v>
       </c>
@@ -21547,7 +21548,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="384" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>1918</v>
       </c>
@@ -21594,7 +21595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>1919</v>
       </c>
@@ -21641,7 +21642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="386" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>1919</v>
       </c>
@@ -21688,7 +21689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>1919</v>
       </c>
@@ -21756,7 +21757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="388" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>1919</v>
       </c>
@@ -21833,7 +21834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>1919</v>
       </c>
@@ -21877,7 +21878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>1920</v>
       </c>
@@ -21933,7 +21934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>1920</v>
       </c>
@@ -21983,7 +21984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>1923</v>
       </c>
@@ -22039,7 +22040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>1923</v>
       </c>
@@ -22092,7 +22093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>1924</v>
       </c>
@@ -22148,7 +22149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>1926</v>
       </c>
@@ -22228,7 +22229,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="396" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>1927</v>
       </c>
@@ -22269,7 +22270,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="397" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>1927</v>
       </c>
@@ -22325,7 +22326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>1928</v>
       </c>
@@ -22381,7 +22382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>1928</v>
       </c>
@@ -22428,7 +22429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>1928</v>
       </c>
@@ -22469,7 +22470,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="401" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>1928</v>
       </c>
@@ -22525,7 +22526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>1928</v>
       </c>
@@ -22593,7 +22594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="403" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>1928</v>
       </c>
@@ -22649,7 +22650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>1929</v>
       </c>
@@ -22717,7 +22718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>1929</v>
       </c>
@@ -22770,7 +22771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="406" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>1930</v>
       </c>
@@ -22814,7 +22815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="407" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>1930</v>
       </c>
@@ -22870,7 +22871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>1930</v>
       </c>
@@ -22947,7 +22948,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="409" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>1930</v>
       </c>
@@ -23021,7 +23022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="410" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>1931</v>
       </c>
@@ -23074,7 +23075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>1932</v>
       </c>
@@ -23121,7 +23122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>1932</v>
       </c>
@@ -23189,7 +23190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>1933</v>
       </c>
@@ -23245,7 +23246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>1933</v>
       </c>
@@ -23313,7 +23314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>1933</v>
       </c>
@@ -23366,7 +23367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="416" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>1936</v>
       </c>
@@ -23419,7 +23420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>1937</v>
       </c>
@@ -23475,7 +23476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>1937</v>
       </c>
@@ -23549,7 +23550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>1938</v>
       </c>
@@ -23599,7 +23600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>1938</v>
       </c>
@@ -23646,7 +23647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>1939</v>
       </c>
@@ -23699,7 +23700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>1939</v>
       </c>
@@ -23761,7 +23762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>1940</v>
       </c>
@@ -23826,7 +23827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>1940</v>
       </c>
@@ -23894,7 +23895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>1940</v>
       </c>
@@ -23941,7 +23942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>1941</v>
       </c>
@@ -24009,7 +24010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>1941</v>
       </c>
@@ -24056,7 +24057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>1943</v>
       </c>
@@ -24112,7 +24113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>1943</v>
       </c>
@@ -24168,7 +24169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>1944</v>
       </c>
@@ -24224,7 +24225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>1944</v>
       </c>
@@ -24280,7 +24281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>1944</v>
       </c>
@@ -24336,7 +24337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>1944</v>
       </c>
@@ -24380,7 +24381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="434" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>1944</v>
       </c>
@@ -24448,7 +24449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="435" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>1946</v>
       </c>
@@ -24498,7 +24499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>1946</v>
       </c>
@@ -24569,7 +24570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="437" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>1946</v>
       </c>
@@ -24616,7 +24617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>1947</v>
       </c>
@@ -24663,7 +24664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>1947</v>
       </c>
@@ -24716,7 +24717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>1947</v>
       </c>
@@ -24772,7 +24773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>1948</v>
       </c>
@@ -24819,7 +24820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="442" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>1948</v>
       </c>
@@ -24875,7 +24876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="443" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>1948</v>
       </c>
@@ -24931,7 +24932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>1949</v>
       </c>
@@ -24987,7 +24988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>1950</v>
       </c>
@@ -25043,7 +25044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>1950</v>
       </c>
@@ -25117,7 +25118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>1951</v>
       </c>
@@ -25179,7 +25180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="448" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>1951</v>
       </c>
@@ -25232,7 +25233,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="449" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>1951</v>
       </c>
@@ -25285,7 +25286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>1951</v>
       </c>
@@ -25323,7 +25324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="451" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>1952</v>
       </c>
@@ -25367,7 +25368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="452" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>1952</v>
       </c>
@@ -25411,7 +25412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="453" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>1952</v>
       </c>
@@ -25476,7 +25477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>1952</v>
       </c>
@@ -25520,7 +25521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="455" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>1952</v>
       </c>
@@ -25567,7 +25568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>1953</v>
       </c>
@@ -25611,7 +25612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="457" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>1953</v>
       </c>
@@ -25697,7 +25698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="458" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>1953</v>
       </c>
@@ -25741,7 +25742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="459" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>1953</v>
       </c>
@@ -25797,7 +25798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>1953</v>
       </c>
@@ -25844,7 +25845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>1953</v>
       </c>
@@ -25906,7 +25907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>1953</v>
       </c>
@@ -25959,7 +25960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>1954</v>
       </c>
@@ -25997,7 +25998,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="464" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>1954</v>
       </c>
@@ -26059,7 +26060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="465" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>1954</v>
       </c>
@@ -26106,7 +26107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>1955</v>
       </c>
@@ -26162,7 +26163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>1955</v>
       </c>
@@ -26209,7 +26210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>1956</v>
       </c>
@@ -26253,7 +26254,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="469" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>1957</v>
       </c>
@@ -26297,7 +26298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="470" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>1957</v>
       </c>
@@ -26365,7 +26366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="471" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>1957</v>
       </c>
@@ -26430,7 +26431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="472" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>1957</v>
       </c>
@@ -26483,7 +26484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>1958</v>
       </c>
@@ -26551,7 +26552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>1958</v>
       </c>
@@ -26595,7 +26596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="475" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>1960</v>
       </c>
@@ -26642,7 +26643,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="476" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>1961</v>
       </c>
@@ -26698,7 +26699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>1962</v>
       </c>
@@ -26766,7 +26767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>1962</v>
       </c>
@@ -26831,7 +26832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>1963</v>
       </c>
@@ -26905,7 +26906,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="480" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>1963</v>
       </c>
@@ -26982,7 +26983,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="481" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>1963</v>
       </c>
@@ -27038,7 +27039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>1963</v>
       </c>
@@ -27094,7 +27095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="483" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>1963</v>
       </c>
@@ -27144,7 +27145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>1963</v>
       </c>
@@ -27203,7 +27204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>1963</v>
       </c>
@@ -27259,7 +27260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>1964</v>
       </c>
@@ -27324,7 +27325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>1964</v>
       </c>
@@ -27380,7 +27381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>1964</v>
       </c>
@@ -27433,7 +27434,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="489" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>1965</v>
       </c>
@@ -27504,7 +27505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>1966</v>
       </c>
@@ -27548,7 +27549,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="491" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>1966</v>
       </c>
@@ -27628,7 +27629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="492" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>1966</v>
       </c>
@@ -27702,7 +27703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="493" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>1966</v>
       </c>
@@ -27749,7 +27750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>1967</v>
       </c>
@@ -27805,7 +27806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>1967</v>
       </c>
@@ -27852,7 +27853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>1967</v>
       </c>
@@ -27914,7 +27915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>1967</v>
       </c>
@@ -27958,7 +27959,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="498" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>1968</v>
       </c>
@@ -28035,7 +28036,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="499" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>1968</v>
       </c>
@@ -28091,7 +28092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>1968</v>
       </c>
@@ -28147,7 +28148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="501" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>1969</v>
       </c>
@@ -28227,7 +28228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="502" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>1969</v>
       </c>
@@ -28280,7 +28281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>1970</v>
       </c>
@@ -28327,7 +28328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>1971</v>
       </c>
@@ -28383,7 +28384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>1971</v>
       </c>
@@ -28427,7 +28428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="506" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>1971</v>
       </c>
@@ -28483,7 +28484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>1971</v>
       </c>
@@ -28536,7 +28537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>1971</v>
       </c>
@@ -28592,7 +28593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>1972</v>
       </c>
@@ -28648,7 +28649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>1972</v>
       </c>
@@ -28692,7 +28693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>1973</v>
       </c>
@@ -28748,7 +28749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>1973</v>
       </c>
@@ -28798,7 +28799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>1973</v>
       </c>
@@ -28851,7 +28852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>1973</v>
       </c>
@@ -28907,7 +28908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A515">
         <v>1974</v>
       </c>
@@ -28963,7 +28964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>1974</v>
       </c>
@@ -29019,7 +29020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A517">
         <v>1974</v>
       </c>
@@ -29075,7 +29076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>1974</v>
       </c>
@@ -29131,7 +29132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A519">
         <v>1974</v>
       </c>
@@ -29181,7 +29182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>1974</v>
       </c>
@@ -29225,7 +29226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A521">
         <v>1975</v>
       </c>
@@ -29290,7 +29291,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="522" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>1975</v>
       </c>
@@ -29349,7 +29350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A523">
         <v>1975</v>
       </c>
@@ -29414,7 +29415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="524" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A524">
         <v>1976</v>
       </c>
@@ -29482,7 +29483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A525">
         <v>1976</v>
       </c>
@@ -29538,7 +29539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="526" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A526">
         <v>1976</v>
       </c>
@@ -29618,7 +29619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A527">
         <v>1977</v>
       </c>
@@ -29674,7 +29675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="528" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A528">
         <v>1977</v>
       </c>
@@ -29727,7 +29728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A529">
         <v>1977</v>
       </c>
@@ -29774,7 +29775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A530">
         <v>1977</v>
       </c>
@@ -29830,7 +29831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A531">
         <v>1978</v>
       </c>
@@ -29898,7 +29899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A532">
         <v>1978</v>
       </c>
@@ -29945,7 +29946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A533">
         <v>1978</v>
       </c>
@@ -30001,7 +30002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A534">
         <v>1979</v>
       </c>
@@ -30057,7 +30058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="535" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A535">
         <v>1979</v>
       </c>
@@ -30113,7 +30114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A536">
         <v>1979</v>
       </c>
@@ -30181,7 +30182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A537">
         <v>1979</v>
       </c>
@@ -30249,7 +30250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A538">
         <v>1980</v>
       </c>
@@ -30323,7 +30324,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="539" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A539">
         <v>1980</v>
       </c>
@@ -30370,7 +30371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A540">
         <v>1981</v>
       </c>
@@ -30417,7 +30418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="541" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A541">
         <v>1981</v>
       </c>
@@ -30464,7 +30465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A542">
         <v>1981</v>
       </c>
@@ -30517,7 +30518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="543" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A543">
         <v>1981</v>
       </c>
@@ -30573,7 +30574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A544">
         <v>1982</v>
       </c>
@@ -30656,7 +30657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="545" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A545">
         <v>1982</v>
       </c>
@@ -30712,7 +30713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A546">
         <v>1982</v>
       </c>
@@ -30780,7 +30781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="547" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A547">
         <v>1982</v>
       </c>
@@ -30836,7 +30837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A548">
         <v>1983</v>
       </c>
@@ -30892,7 +30893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A549">
         <v>1983</v>
       </c>
@@ -30939,7 +30940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A550">
         <v>1983</v>
       </c>
@@ -30986,7 +30987,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="551" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A551">
         <v>1983</v>
       </c>
@@ -31036,7 +31037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="552" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A552">
         <v>1984</v>
       </c>
@@ -31089,7 +31090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="553" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A553">
         <v>1984</v>
       </c>
@@ -31145,7 +31146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A554">
         <v>1985</v>
       </c>
@@ -31213,7 +31214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="555" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A555">
         <v>1986</v>
       </c>
@@ -31269,7 +31270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="556" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A556">
         <v>1986</v>
       </c>
@@ -31337,7 +31338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="557" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A557">
         <v>1986</v>
       </c>
@@ -31393,7 +31394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="558" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A558">
         <v>1986</v>
       </c>
@@ -31449,7 +31450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="559" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A559">
         <v>1987</v>
       </c>
@@ -31520,7 +31521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="560" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A560">
         <v>1987</v>
       </c>
@@ -31588,7 +31589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="561" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A561">
         <v>1987</v>
       </c>
@@ -31650,7 +31651,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="562" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A562">
         <v>1988</v>
       </c>
@@ -31706,7 +31707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="563" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A563">
         <v>1988</v>
       </c>
@@ -31762,7 +31763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A564">
         <v>1988</v>
       </c>
@@ -31818,7 +31819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="565" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A565">
         <v>1990</v>
       </c>
@@ -31865,7 +31866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="566" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A566">
         <v>1990</v>
       </c>
@@ -31921,7 +31922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="567" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A567">
         <v>1990</v>
       </c>
@@ -31968,7 +31969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="568" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A568">
         <v>1990</v>
       </c>
@@ -32024,7 +32025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="569" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A569">
         <v>1990</v>
       </c>
@@ -32080,7 +32081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="570" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A570">
         <v>1991</v>
       </c>
@@ -32157,7 +32158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="571" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A571">
         <v>1991</v>
       </c>
@@ -32204,7 +32205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A572">
         <v>1991</v>
       </c>
@@ -32251,7 +32252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="573" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A573">
         <v>1991</v>
       </c>
@@ -32307,7 +32308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="574" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A574">
         <v>1991</v>
       </c>
@@ -32360,7 +32361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="575" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A575">
         <v>1992</v>
       </c>
@@ -32416,7 +32417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="576" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A576">
         <v>1992</v>
       </c>
@@ -32472,7 +32473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="577" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A577">
         <v>1992</v>
       </c>
@@ -32528,7 +32529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A578">
         <v>1992</v>
       </c>
@@ -32581,7 +32582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="579" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A579">
         <v>1993</v>
       </c>
@@ -32637,7 +32638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="580" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A580">
         <v>1993</v>
       </c>
@@ -32693,7 +32694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="581" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A581">
         <v>1993</v>
       </c>
@@ -32761,7 +32762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A582">
         <v>1993</v>
       </c>
@@ -32829,7 +32830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A583">
         <v>1993</v>
       </c>
@@ -32891,7 +32892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="584" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A584">
         <v>1994</v>
       </c>
@@ -32941,7 +32942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="585" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A585">
         <v>1994</v>
       </c>
@@ -33009,7 +33010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="586" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A586">
         <v>1994</v>
       </c>
@@ -33068,7 +33069,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="587" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A587">
         <v>1994</v>
       </c>
@@ -33121,7 +33122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="588" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A588">
         <v>1995</v>
       </c>
@@ -33192,7 +33193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="589" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A589">
         <v>1996</v>
       </c>
@@ -33236,7 +33237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="590" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A590">
         <v>1996</v>
       </c>
@@ -33295,7 +33296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="591" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A591">
         <v>1996</v>
       </c>
@@ -33351,7 +33352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="592" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A592">
         <v>1996</v>
       </c>
@@ -33398,7 +33399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="593" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A593">
         <v>1997</v>
       </c>
@@ -33454,7 +33455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="594" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A594">
         <v>1997</v>
       </c>
@@ -33513,7 +33514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="595" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A595">
         <v>1997</v>
       </c>
@@ -33566,7 +33567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="596" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A596">
         <v>1997</v>
       </c>
@@ -33607,7 +33608,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="597" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A597">
         <v>1998</v>
       </c>
@@ -33654,7 +33655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="598" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A598">
         <v>1999</v>
       </c>
@@ -33698,7 +33699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="599" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A599">
         <v>1999</v>
       </c>
@@ -33739,7 +33740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="600" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A600">
         <v>1999</v>
       </c>
@@ -33783,7 +33784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="601" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A601">
         <v>2000</v>
       </c>
@@ -33845,7 +33846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="602" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A602">
         <v>2000</v>
       </c>
@@ -33898,7 +33899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="603" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A603">
         <v>2001</v>
       </c>
@@ -33957,7 +33958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="604" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A604">
         <v>2001</v>
       </c>
@@ -34010,7 +34011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="605" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A605">
         <v>2002</v>
       </c>
@@ -34066,7 +34067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="606" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A606">
         <v>2002</v>
       </c>
@@ -34140,7 +34141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="607" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A607">
         <v>2002</v>
       </c>
@@ -34208,7 +34209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="608" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A608">
         <v>2002</v>
       </c>
@@ -34267,7 +34268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="609" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A609">
         <v>2003</v>
       </c>
@@ -34311,7 +34312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="610" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A610">
         <v>2004</v>
       </c>
@@ -34367,7 +34368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="611" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A611">
         <v>2005</v>
       </c>
@@ -34417,7 +34418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="612" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A612">
         <v>2006</v>
       </c>
@@ -34467,7 +34468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="613" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A613">
         <v>2006</v>
       </c>
@@ -34514,7 +34515,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="614" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A614">
         <v>2006</v>
       </c>
@@ -34561,7 +34562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="615" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A615">
         <v>2006</v>
       </c>
@@ -34614,7 +34615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="616" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A616">
         <v>2006</v>
       </c>
@@ -34676,7 +34677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="617" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A617">
         <v>2006</v>
       </c>
@@ -34729,7 +34730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="618" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A618">
         <v>2006</v>
       </c>
@@ -34812,7 +34813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="619" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A619">
         <v>2007</v>
       </c>
@@ -34862,7 +34863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="620" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A620">
         <v>2007</v>
       </c>
@@ -34921,7 +34922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="621" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A621">
         <v>2008</v>
       </c>
@@ -34971,7 +34972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="622" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A622">
         <v>2008</v>
       </c>
@@ -35015,7 +35016,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="623" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A623">
         <v>2008</v>
       </c>
@@ -35101,7 +35102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="624" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A624">
         <v>2008</v>
       </c>
@@ -35163,7 +35164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="625" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A625">
         <v>2009</v>
       </c>
@@ -35204,7 +35205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="626" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A626">
         <v>2009</v>
       </c>
@@ -35248,7 +35249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="627" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A627">
         <v>2010</v>
       </c>
@@ -35292,7 +35293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="628" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A628">
         <v>2010</v>
       </c>
@@ -35345,7 +35346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="629" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A629">
         <v>2010</v>
       </c>
@@ -35431,7 +35432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="630" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A630">
         <v>2010</v>
       </c>
@@ -35475,7 +35476,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="631" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A631">
         <v>2010</v>
       </c>
@@ -35546,7 +35547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="632" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A632">
         <v>2010</v>
       </c>
@@ -35596,7 +35597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="633" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A633">
         <v>2010</v>
       </c>
@@ -35676,7 +35677,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="634" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A634">
         <v>2010</v>
       </c>
@@ -35720,7 +35721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="635" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A635">
         <v>2010</v>
       </c>
@@ -35761,7 +35762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="636" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A636">
         <v>2011</v>
       </c>
@@ -35832,7 +35833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="637" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A637">
         <v>2011</v>
       </c>
@@ -35876,7 +35877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="638" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A638">
         <v>2011</v>
       </c>
@@ -35929,7 +35930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="639" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A639">
         <v>2011</v>
       </c>
@@ -35973,7 +35974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="640" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A640">
         <v>2011</v>
       </c>
@@ -36017,7 +36018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="641" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A641">
         <v>2011</v>
       </c>
@@ -36064,7 +36065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="642" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A642">
         <v>2011</v>
       </c>
@@ -36123,7 +36124,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="643" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A643">
         <v>2011</v>
       </c>
@@ -36167,7 +36168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="644" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A644">
         <v>2011</v>
       </c>
@@ -36217,7 +36218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="645" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A645">
         <v>2011</v>
       </c>
@@ -36279,7 +36280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="646" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A646">
         <v>2012</v>
       </c>
@@ -36323,7 +36324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="647" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A647">
         <v>2012</v>
       </c>
@@ -36373,7 +36374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="648" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A648">
         <v>2012</v>
       </c>
@@ -36417,7 +36418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="649" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A649">
         <v>2013</v>
       </c>
@@ -36488,7 +36489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="650" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A650">
         <v>2013</v>
       </c>
@@ -36535,7 +36536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="651" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A651">
         <v>2013</v>
       </c>
@@ -36597,7 +36598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="652" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A652">
         <v>2013</v>
       </c>
@@ -36650,7 +36651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="653" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A653">
         <v>2013</v>
       </c>
@@ -36694,7 +36695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="654" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A654">
         <v>2013</v>
       </c>
@@ -36735,7 +36736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="655" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A655">
         <v>2013</v>
       </c>
@@ -36782,7 +36783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="656" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A656">
         <v>2014</v>
       </c>
@@ -36856,7 +36857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="657" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A657">
         <v>2014</v>
       </c>
@@ -36924,7 +36925,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="658" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A658">
         <v>2014</v>
       </c>
@@ -36989,7 +36990,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="659" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A659">
         <v>2014</v>
       </c>
@@ -37051,7 +37052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="660" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A660">
         <v>2014</v>
       </c>
@@ -37107,28 +37108,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>471</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/significantvolcanoeruptions.xlsx
+++ b/significantvolcanoeruptions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ContactTracer\Desktop\Tableau Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB12DBBD-B4D4-4CC8-A160-312162604005}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2CA9A82-E551-4512-9F05-F2F448E35FAA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
